--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRacy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE70BA0A-976E-4D83-AA8F-4EAE4FEC28B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9C6142-00F1-4980-95B5-5AADDAB8BCD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>教师号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,51 +71,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>职称获取时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010110155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1975-10-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005-10-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010110156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1975-10-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005-10-11</t>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周福山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>职称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职称获取时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清华大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机科学学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教授</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010110155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1975-10-25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2005-10-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -488,48 +507,86 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>123456</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="1">
         <v>2010</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2011</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRacy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9C6142-00F1-4980-95B5-5AADDAB8BCD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB123ABF-245C-4672-8286-468AE15711AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>教师号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,63 +55,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>政治面貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称获取时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010110155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1975-10-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005-10-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010110156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005-10-11</t>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周福山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>毕业院校</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>政治面貌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职称获取时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清华大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机科学学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教授</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010110155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1975-10-25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2005-10-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010110156</t>
+    <t>总学时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>582</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -119,22 +150,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2005-10-11</t>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周福山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职称</t>
+    <t>2010aa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,21 +477,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,98 +511,107 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>123456</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2010</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>123456</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
       </c>
       <c r="I3" s="1">
         <v>2011</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRacy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB123ABF-245C-4672-8286-468AE15711AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E48B53A-1041-4D2E-A2ED-6D05D58A534D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>教师号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,27 +47,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治面貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称获取时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1975-10-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005-10-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005-10-11</t>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业院校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总学时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>582</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1975-10-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>291434953@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周福清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201011055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201011056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>生日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治面貌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职称获取时间</t>
+    <t>2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>291434953qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -75,82 +170,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>博士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清华大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机科学学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教授</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010110155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1975-10-25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2005-10-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010110156</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2005-10-11</t>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周福山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业院校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总学时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>569</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>582</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1975-10-26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010aa</t>
+    <t>计算机科学学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,9 +214,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -477,21 +498,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,113 +527,122 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1">
         <v>123456</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>123456</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1">
-        <v>2011</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRacy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E48B53A-1041-4D2E-A2ED-6D05D58A534D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A99827-30F9-4582-B268-ACDCA2017BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>教师号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,15 +162,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>291434953qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机科学学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +209,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -500,60 +492,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="30.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="16.109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -561,11 +557,11 @@
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D2" s="1">
         <v>123456</v>
@@ -576,13 +572,13 @@
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -591,10 +587,10 @@
       <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -605,28 +601,28 @@
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>123456</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -635,10 +631,10 @@
       <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="1" t="s">

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRacy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A99827-30F9-4582-B268-ACDCA2017BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAB2480-E29B-4777-885B-2E6B301EFC14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="133">
   <si>
     <t>教师号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算机科学学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教授</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>职称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,18 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周福清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201011055</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201011056</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,6 +143,349 @@
   </si>
   <si>
     <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>291434954@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-27</t>
+  </si>
+  <si>
+    <t>2005-10-12</t>
+  </si>
+  <si>
+    <t>291434955@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-28</t>
+  </si>
+  <si>
+    <t>2005-10-13</t>
+  </si>
+  <si>
+    <t>291434956@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-29</t>
+  </si>
+  <si>
+    <t>2005-10-14</t>
+  </si>
+  <si>
+    <t>291434957@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-30</t>
+  </si>
+  <si>
+    <t>2005-10-15</t>
+  </si>
+  <si>
+    <t>291434958@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-31</t>
+  </si>
+  <si>
+    <t>2005-10-16</t>
+  </si>
+  <si>
+    <t>291434959@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-32</t>
+  </si>
+  <si>
+    <t>2005-10-17</t>
+  </si>
+  <si>
+    <t>291434960@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-33</t>
+  </si>
+  <si>
+    <t>2005-10-18</t>
+  </si>
+  <si>
+    <t>291434961@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-34</t>
+  </si>
+  <si>
+    <t>2005-10-19</t>
+  </si>
+  <si>
+    <t>291434962@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-35</t>
+  </si>
+  <si>
+    <t>2005-10-20</t>
+  </si>
+  <si>
+    <t>291434963@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-36</t>
+  </si>
+  <si>
+    <t>2005-10-21</t>
+  </si>
+  <si>
+    <t>291434964@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-37</t>
+  </si>
+  <si>
+    <t>2005-10-22</t>
+  </si>
+  <si>
+    <t>291434965@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-38</t>
+  </si>
+  <si>
+    <t>2005-10-23</t>
+  </si>
+  <si>
+    <t>291434966@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-39</t>
+  </si>
+  <si>
+    <t>2005-10-24</t>
+  </si>
+  <si>
+    <t>291434967@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-40</t>
+  </si>
+  <si>
+    <t>2005-10-25</t>
+  </si>
+  <si>
+    <t>291434968@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-41</t>
+  </si>
+  <si>
+    <t>2005-10-26</t>
+  </si>
+  <si>
+    <t>291434969@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-42</t>
+  </si>
+  <si>
+    <t>2005-10-27</t>
+  </si>
+  <si>
+    <t>291434970@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-43</t>
+  </si>
+  <si>
+    <t>2005-10-28</t>
+  </si>
+  <si>
+    <t>291434971@qq.com</t>
+  </si>
+  <si>
+    <t>1975-10-44</t>
+  </si>
+  <si>
+    <t>2005-10-29</t>
+  </si>
+  <si>
+    <t>戴世发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复旦大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海交通大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安交通大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201212003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201212004</t>
+  </si>
+  <si>
+    <t>201212005</t>
+  </si>
+  <si>
+    <t>201212006</t>
+  </si>
+  <si>
+    <t>201212007</t>
+  </si>
+  <si>
+    <t>201212008</t>
+  </si>
+  <si>
+    <t>201212009</t>
+  </si>
+  <si>
+    <t>201212010</t>
+  </si>
+  <si>
+    <t>201212011</t>
+  </si>
+  <si>
+    <t>201212012</t>
+  </si>
+  <si>
+    <t>201212013</t>
+  </si>
+  <si>
+    <t>201212014</t>
+  </si>
+  <si>
+    <t>201212015</t>
+  </si>
+  <si>
+    <t>201212016</t>
+  </si>
+  <si>
+    <t>201212017</t>
+  </si>
+  <si>
+    <t>201212018</t>
+  </si>
+  <si>
+    <t>201212019</t>
+  </si>
+  <si>
+    <t>201212020</t>
+  </si>
+  <si>
+    <t>201212021</t>
+  </si>
+  <si>
+    <t>201212022</t>
+  </si>
+  <si>
+    <t>经济与管理学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董发武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董红玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜佳红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜金琼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜明月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜希鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范冬梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范成军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范潇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范佑丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方若华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方小雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房宗花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯国平</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,10 +529,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -490,19 +816,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="1"/>
+    <col min="2" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="24" style="1" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="1"/>
     <col min="12" max="12" width="16.88671875" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" style="1"/>
     <col min="14" max="14" width="16.109375" style="1" customWidth="1"/>
@@ -523,16 +852,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -541,13 +870,13 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -555,22 +884,22 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D2" s="1">
         <v>123456</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -582,39 +911,39 @@
         <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>94</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>123456</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
@@ -626,19 +955,811 @@
         <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
